--- a/N8N.xlsx
+++ b/N8N.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>khái niệm</t>
   </si>
@@ -234,13 +234,43 @@
   </si>
   <si>
     <t>4. Node 3: Google Sheets Node (ghi dữ liệu vào Google Sheets).</t>
+  </si>
+  <si>
+    <t>https://phandong752.app.n8n.cloud/webhook-test/90c6f7ac-2ab3-489a-9c4f-5e599eb58b5f/webhook</t>
+  </si>
+  <si>
+    <t>Xóa những gì có trong liên kết chân trang ngay bây giờ,</t>
+  </si>
+  <si>
+    <t>Remove what's in the footer links now, add header Info and add existing static pages to footer then remove static page links from header navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thêm thông tin tiêu đề </t>
+  </si>
+  <si>
+    <t xml:space="preserve">và thêm các trang tĩnh hiện có vào chân trang </t>
+  </si>
+  <si>
+    <t>sau đó xóa các liên kết trang tĩnh khỏi điều hướng tiêu đề</t>
+  </si>
+  <si>
+    <t>https://webhook.site/</t>
+  </si>
+  <si>
+    <t>test webhook có hoạt động ko</t>
+  </si>
+  <si>
+    <t>https://webhook.site/#!/view/f6d811a3-53d5-4e19-8f05-56694b7de55f/d7d6b471-133c-4bfb-ab61-9cfa14ef1dfc/1</t>
+  </si>
+  <si>
+    <t>về cluond thì</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +303,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -316,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -342,6 +380,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -623,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:U93"/>
+  <dimension ref="C1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,6 +759,15 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
+      <c r="J11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C12">
@@ -759,34 +807,30 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="9">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
+      <c r="E22" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
@@ -795,7 +839,7 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
@@ -804,7 +848,7 @@
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
@@ -813,30 +857,31 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>39</v>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
-      <c r="D27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>40</v>
+      <c r="E27" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
@@ -844,27 +889,26 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
@@ -873,119 +917,117 @@
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="50" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="S50" s="3">
-        <v>1</v>
-      </c>
-      <c r="T50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U50" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U51" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
       <c r="S52" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U52" s="4" t="s">
         <v>13</v>
@@ -993,164 +1035,216 @@
     </row>
     <row r="53" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S53" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U53" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S54" s="5">
+      <c r="S54" s="3">
+        <v>4</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S55" s="5">
         <v>5</v>
       </c>
-      <c r="T54" s="6" t="s">
+      <c r="T55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U54" s="6" t="s">
+      <c r="U55" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S55" s="3">
+    <row r="56" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S56" s="3">
         <v>6</v>
       </c>
-      <c r="T55" s="4" t="s">
+      <c r="T56" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="U55" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>50</v>
-      </c>
-      <c r="S56" s="3">
-        <v>7</v>
-      </c>
-      <c r="T56" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="U56" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
       <c r="S57" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U57" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>51</v>
-      </c>
+    <row r="58" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S58" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U58" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>52</v>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+      <c r="S59" s="3">
+        <v>9</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
+      <c r="M75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
+      <c r="M77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1159,8 +1253,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="J11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/N8N.xlsx
+++ b/N8N.xlsx
@@ -12,7 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="usung n8n" sheetId="1" r:id="rId1"/>
+    <sheet name="integrations" sheetId="2" r:id="rId2"/>
+    <sheet name="hosting n8n" sheetId="3" r:id="rId3"/>
+    <sheet name="code in n8n" sheetId="4" r:id="rId4"/>
+    <sheet name="adcanced AI" sheetId="5" r:id="rId5"/>
+    <sheet name="API" sheetId="6" r:id="rId6"/>
+    <sheet name="Embed" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>khái niệm</t>
   </si>
@@ -62,39 +68,6 @@
     <t>Cloud</t>
   </si>
   <si>
-    <t>announcement</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>promo strip</t>
-  </si>
-  <si>
-    <t>banner</t>
-  </si>
-  <si>
-    <t>list product</t>
-  </si>
-  <si>
-    <t>crolling banner</t>
-  </si>
-  <si>
-    <t>image  banner</t>
-  </si>
-  <si>
-    <t>collection list</t>
-  </si>
-  <si>
-    <t>footer</t>
-  </si>
-  <si>
-    <t>Cannot query product</t>
-  </si>
-  <si>
     <t>kết hợp n8n với shopify</t>
   </si>
   <si>
@@ -236,24 +209,6 @@
     <t>4. Node 3: Google Sheets Node (ghi dữ liệu vào Google Sheets).</t>
   </si>
   <si>
-    <t>https://phandong752.app.n8n.cloud/webhook-test/90c6f7ac-2ab3-489a-9c4f-5e599eb58b5f/webhook</t>
-  </si>
-  <si>
-    <t>Xóa những gì có trong liên kết chân trang ngay bây giờ,</t>
-  </si>
-  <si>
-    <t>Remove what's in the footer links now, add header Info and add existing static pages to footer then remove static page links from header navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> thêm thông tin tiêu đề </t>
-  </si>
-  <si>
-    <t xml:space="preserve">và thêm các trang tĩnh hiện có vào chân trang </t>
-  </si>
-  <si>
-    <t>sau đó xóa các liên kết trang tĩnh khỏi điều hướng tiêu đề</t>
-  </si>
-  <si>
     <t>https://webhook.site/</t>
   </si>
   <si>
@@ -264,13 +219,337 @@
   </si>
   <si>
     <t>về cluond thì</t>
+  </si>
+  <si>
+    <t>App or Action Nodes</t>
+  </si>
+  <si>
+    <t>Trigger Nodes</t>
+  </si>
+  <si>
+    <t>Core Nodes</t>
+  </si>
+  <si>
+    <t>Cluster Nodes</t>
+  </si>
+  <si>
+    <t>2. Integrations (Tích hợp)</t>
+  </si>
+  <si>
+    <t>Phần này tập trung vào cách tích hợp n8n với các công cụ và dịch vụ khác.</t>
+  </si>
+  <si>
+    <t>Nội dung thường bao gồm:</t>
+  </si>
+  <si>
+    <r>
+      <t>Các node tích hợp sẵn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hàng trăm dịch vụ đã được hỗ trợ sẵn như Google Sheets, Slack, Airtable, v.v.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>API Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hướng dẫn sử dụng API của n8n để kết nối với các dịch vụ chưa được hỗ trợ sẵn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Custom Integrations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cách viết các tích hợp tùy chỉnh.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Hosting n8n (Lưu trữ n8n)</t>
+  </si>
+  <si>
+    <t>Phần này hướng dẫn về cách triển khai n8n trên các nền tảng lưu trữ khác nhau.</t>
+  </si>
+  <si>
+    <t>Nội dung bao gồm:</t>
+  </si>
+  <si>
+    <r>
+      <t>Self-hosted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hướng dẫn cài đặt n8n trên máy chủ cá nhân, sử dụng Docker hoặc Kubernetes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cloud hosting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sử dụng các dịch vụ lưu trữ đám mây như AWS, Azure, hoặc Google Cloud để triển khai n8n.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n8n.cloud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Dịch vụ lưu trữ chính thức của n8n với tính năng sẵn sàng sử dụng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dành cho người muốn đi sâu vào lập trình và tùy chỉnh các workflow.</t>
+  </si>
+  <si>
+    <r>
+      <t>JavaScript code nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sử dụng các node JavaScript để tùy chỉnh logic trong workflow.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Custom functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Viết các hàm tùy chỉnh để xử lý dữ liệu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Debugging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cách gỡ lỗi các workflow khi sử dụng mã.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Advanced AI (Trí tuệ nhân tạo nâng cao)</t>
+  </si>
+  <si>
+    <t>Phần này có thể liên quan đến các tính năng AI mà n8n hỗ trợ hoặc cách tích hợp AI vào workflow.</t>
+  </si>
+  <si>
+    <r>
+      <t>Tích hợp AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Kết nối n8n với OpenAI (ChatGPT), Hugging Face, hoặc các nền tảng AI khác.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xử lý dữ liệu với AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sử dụng AI để phân tích, trích xuất thông tin từ dữ liệu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AI Automation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tự động hóa các quy trình liên quan đến trí tuệ nhân tạo.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Code in n8n (Mã hóa trong n8n)</t>
+  </si>
+  <si>
+    <t>6. API</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng API của n8n để điều khiển và quản lý các workflow từ xa.</t>
+  </si>
+  <si>
+    <r>
+      <t>n8n REST API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cách gọi API để tạo, chỉnh sửa, và xóa workflow.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Các phương thức xác thực API như Basic Auth, API Token.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Automation via API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tự động hóa việc quản lý workflow thông qua API.</t>
+    </r>
+  </si>
+  <si>
+    <t>7. Embed (Nhúng n8n)</t>
+  </si>
+  <si>
+    <t>Phần này tập trung vào việc nhúng n8n vào các ứng dụng hoặc hệ thống khác.</t>
+  </si>
+  <si>
+    <r>
+      <t>Embedded Workflows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cách tích hợp workflow của n8n vào ứng dụng của bạn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UI Customization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tùy chỉnh giao diện n8n khi nhúng vào hệ thống khác.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Xử lý xác thực khi nhúng n8n vào các ứng dụng doanh nghiệp.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +589,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -326,7 +613,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -334,27 +621,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -362,25 +634,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -662,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:U102"/>
+  <dimension ref="C1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,27 +968,27 @@
   <sheetData>
     <row r="1" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -721,7 +1012,7 @@
       <c r="R5" s="1"/>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -748,8 +1039,8 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>31</v>
+      <c r="J10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
@@ -759,14 +1050,14 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>76</v>
+      <c r="J11" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
@@ -778,7 +1069,7 @@
       </c>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -808,443 +1099,379 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="9"/>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>39</v>
+      <c r="C27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>45</v>
+      <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="2"/>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="2"/>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="2"/>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="2"/>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="49" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50">
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62">
         <v>1</v>
       </c>
-      <c r="D50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51">
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+    </row>
+    <row r="63" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
-        <v>25</v>
-      </c>
-      <c r="S51" s="3">
-        <v>1</v>
-      </c>
-      <c r="T51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U51" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52">
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="S63" s="15"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+    </row>
+    <row r="64" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64">
         <v>3</v>
       </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="S52" s="3">
-        <v>2</v>
-      </c>
-      <c r="T52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U52" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S53" s="3">
-        <v>3</v>
-      </c>
-      <c r="T53" s="4" t="s">
+      <c r="D64" t="s">
         <v>15</v>
       </c>
-      <c r="U53" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S54" s="3">
-        <v>4</v>
-      </c>
-      <c r="T54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U54" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S55" s="5">
-        <v>5</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U55" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S56" s="3">
-        <v>6</v>
-      </c>
-      <c r="T56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U56" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>50</v>
-      </c>
-      <c r="S57" s="3">
-        <v>7</v>
-      </c>
-      <c r="T57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U57" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S58" s="3">
-        <v>8</v>
-      </c>
-      <c r="T58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U58" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>51</v>
-      </c>
-      <c r="S59" s="3">
-        <v>9</v>
-      </c>
-      <c r="T59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U59" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="S64" s="15"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+    </row>
+    <row r="65" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S65" s="15"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+    </row>
+    <row r="66" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S66" s="15"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+    </row>
+    <row r="67" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S67" s="17"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="18"/>
+    </row>
+    <row r="68" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S68" s="15"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+    </row>
+    <row r="69" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="S69" s="15"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+    </row>
+    <row r="70" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S70" s="15"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+    </row>
+    <row r="71" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="M72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="S71" s="15"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+    </row>
+    <row r="72" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+    </row>
+    <row r="74" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>59</v>
-      </c>
-      <c r="M75" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="M76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>60</v>
-      </c>
-      <c r="M77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="M78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K98" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K99" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K100" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K102" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1258,4 +1485,302 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="E3" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="D2" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D2" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="E3" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/N8N.xlsx
+++ b/N8N.xlsx
@@ -19,6 +19,7 @@
     <sheet name="adcanced AI" sheetId="5" r:id="rId5"/>
     <sheet name="API" sheetId="6" r:id="rId6"/>
     <sheet name="Embed" sheetId="7" r:id="rId7"/>
+    <sheet name="level 2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
   <si>
     <t>khái niệm</t>
   </si>
@@ -147,42 +148,6 @@
   </si>
   <si>
     <t>Thao tác trên cơ sở dữ liệu.</t>
-  </si>
-  <si>
-    <t>Các loại node trong n8n:</t>
-  </si>
-  <si>
-    <t>1. Input/Output Node:</t>
-  </si>
-  <si>
-    <t>Gửi hoặc nhận dữ liệu.</t>
-  </si>
-  <si>
-    <t>Ví dụ: HTTP Request Node để gọi API, hoặc MySQL Node để truy vấn cơ sở dữ liệu.</t>
-  </si>
-  <si>
-    <t>2. Processing Node:</t>
-  </si>
-  <si>
-    <t>Xử lý dữ liệu, chuyển đổi hoặc lọc dữ liệu.</t>
-  </si>
-  <si>
-    <t>Ví dụ: Function Node để viết logic tùy chỉnh bằng JavaScript.</t>
-  </si>
-  <si>
-    <t>3. Integration Node:</t>
-  </si>
-  <si>
-    <t>Tích hợp với các ứng dụng bên ngoài.</t>
-  </si>
-  <si>
-    <t>Ví dụ: Google Sheets Node, Slack Node, Trello Node.</t>
-  </si>
-  <si>
-    <t>4. Trigger Node:</t>
-  </si>
-  <si>
-    <t>Kích hoạt workflow như đã nói ở trên.</t>
   </si>
   <si>
     <t>Mối quan hệ giữa Trigger và Node</t>
@@ -544,12 +509,159 @@
       <t>: Xử lý xác thực khi nhúng n8n vào các ứng dụng doanh nghiệp.</t>
     </r>
   </si>
+  <si>
+    <t>cách viết code trong n8n</t>
+  </si>
+  <si>
+    <t>cấu trúc dữ liệu đến có thể khác với n8n</t>
+  </si>
+  <si>
+    <t>split out node</t>
+  </si>
+  <si>
+    <t>aggregate node</t>
+  </si>
+  <si>
+    <t>code node</t>
+  </si>
+  <si>
+    <t>tạo nhiều mục từ 1 mục</t>
+  </si>
+  <si>
+    <t>tạo 1 mục từ nhiều mục</t>
+  </si>
+  <si>
+    <t>để chuyển đổi dữ liệu thì ta có 2 cách sau</t>
+  </si>
+  <si>
+    <t>các node hay sử dụng</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <r>
+      <t>Schedule Trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tự động kích hoạt workflow mỗi 30 phút (hoặc khoảng thời gian bạn thiết lập).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Manual Trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Dùng khi bạn muốn chạy thử workflow một cách thủ công.</t>
+    </r>
+  </si>
+  <si>
+    <t>hợp nhất và phân tách dữ liệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Splitting Data / chia tách dữ liệu</t>
+  </si>
+  <si>
+    <t>Splitting là quá trình chia một bộ dữ liệu lớn thành các phần tử nhỏ hơn, thường là từng phần tử riêng lẻ, để xử lý từng cái một trong workflow.</t>
+  </si>
+  <si>
+    <t>Tại sao cần Split data?</t>
+  </si>
+  <si>
+    <t>Một số trường hợp yêu cầu bạn phải xử lý từng mục trong danh sách riêng biệt (e.g., gửi email đến từng khách hàng trong danh sách).</t>
+  </si>
+  <si>
+    <t>Giúp workflow xử lý linh hoạt hơn khi cần kiểm tra hoặc thực hiện thao tác khác nhau trên từng mục.</t>
+  </si>
+  <si>
+    <t>Cách sử dụng Split data:</t>
+  </si>
+  <si>
+    <t>Node Split In Batches:</t>
+  </si>
+  <si>
+    <t>Chia dữ liệu thành các nhóm nhỏ hơn để xử lý dần.</t>
+  </si>
+  <si>
+    <t>Ví dụ: Nếu bạn có danh sách 100 khách hàng nhưng chỉ muốn gửi email cho từng nhóm 10 người, bạn dùng Split In Batches.</t>
+  </si>
+  <si>
+    <t>Field to Split Out (Trong các node như Code, Split Out):</t>
+  </si>
+  <si>
+    <t>Trong node như "Split Out," bạn chọn trường chứa danh sách để chia từng phần tử ra thành một mục riêng lẻ.</t>
+  </si>
+  <si>
+    <t>Ví dụ: Từ một API trả về danh sách các sản phẩm, bạn có thể chia nhỏ từng sản phẩm ra để xử lý riêng lẻ.</t>
+  </si>
+  <si>
+    <t>Merging Data (Kết hợp dữ liệu):</t>
+  </si>
+  <si>
+    <t>Merging là quá trình kết hợp dữ liệu từ nhiều luồng khác nhau hoặc từ các node riêng biệt thành một luồng dữ liệu duy nhất.</t>
+  </si>
+  <si>
+    <t>Tại sao cần Merge data?</t>
+  </si>
+  <si>
+    <t>Một workflow có thể có nhiều nguồn dữ liệu khác nhau (e.g., từ API, từ Google Sheets, hoặc từ cơ sở dữ liệu).</t>
+  </si>
+  <si>
+    <t>Bạn cần gộp dữ liệu lại để tổng hợp hoặc xử lý cùng nhau.</t>
+  </si>
+  <si>
+    <t>Hữu ích khi bạn muốn so sánh hoặc đồng bộ hóa dữ liệu từ nhiều nguồn.</t>
+  </si>
+  <si>
+    <t>Cách sử dụng Merge data:</t>
+  </si>
+  <si>
+    <t>Node Merge:</t>
+  </si>
+  <si>
+    <t>Có 2 chế độ:</t>
+  </si>
+  <si>
+    <t>Append: Gộp tất cả dữ liệu từ cả hai nhánh lại với nhau thành một luồng duy nhất.</t>
+  </si>
+  <si>
+    <t>Merge by Key: Kết hợp các mục dữ liệu dựa trên một khóa chung (e.g., ID, tên).</t>
+  </si>
+  <si>
+    <t>Ví dụ: Bạn có danh sách khách hàng từ Google Sheets và thông tin thêm từ API. Bạn dùng "Merge" để kết hợp thông tin từ cả hai nguồn.</t>
+  </si>
+  <si>
+    <t>looping / vòng lặp</t>
+  </si>
+  <si>
+    <t>học đến đây</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +696,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -626,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -635,6 +755,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -643,11 +764,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -672,6 +793,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -688,6 +813,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>532934</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>103973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="11153775"/>
+          <a:ext cx="3723809" cy="6419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599619</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1143000"/>
+          <a:ext cx="3647619" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -953,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:U92"/>
+  <dimension ref="C1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +1199,7 @@
       </c>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1012,7 +1223,7 @@
       <c r="R5" s="1"/>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1039,7 +1250,7 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1050,14 +1261,14 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>59</v>
+      <c r="J11" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
@@ -1069,7 +1280,7 @@
       </c>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1089,7 +1300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>3</v>
       </c>
@@ -1097,35 +1308,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="5">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="E22" s="5" t="s">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
       <c r="D23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1133,8 +1344,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
       <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1142,8 +1353,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
       <c r="D25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1151,23 +1362,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
       <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="E27" s="5" t="s">
+      <c r="O26" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
+      <c r="O27" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
       <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1175,7 +1392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1191,18 +1408,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
         <v>27</v>
@@ -1242,32 +1459,32 @@
       <c r="D36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>63</v>
+      <c r="E36" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>64</v>
+      <c r="E37" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>65</v>
+      <c r="E38" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>66</v>
+      <c r="E39" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
@@ -1275,42 +1492,42 @@
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="3:21" x14ac:dyDescent="0.25">
@@ -1321,12 +1538,24 @@
     </row>
     <row r="54" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D54" s="2"/>
+      <c r="M54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="55" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D56" s="2"/>
+      <c r="M56" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="57" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D57" s="2"/>
@@ -1341,7 +1570,7 @@
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1352,9 +1581,9 @@
       <c r="D62" t="s">
         <v>13</v>
       </c>
-      <c r="S62" s="14"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
     </row>
     <row r="63" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63">
@@ -1363,9 +1592,9 @@
       <c r="D63" t="s">
         <v>14</v>
       </c>
-      <c r="S63" s="15"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
     </row>
     <row r="64" spans="3:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64">
@@ -1374,105 +1603,49 @@
       <c r="D64" t="s">
         <v>15</v>
       </c>
-      <c r="S64" s="15"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-    </row>
-    <row r="65" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S65" s="15"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-    </row>
-    <row r="66" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S66" s="15"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-    </row>
-    <row r="67" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S67" s="17"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-    </row>
-    <row r="68" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S68" s="15"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-    </row>
-    <row r="69" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>39</v>
-      </c>
-      <c r="S69" s="15"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-    </row>
-    <row r="70" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S70" s="15"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-    </row>
-    <row r="71" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>40</v>
-      </c>
-      <c r="S71" s="15"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-    </row>
-    <row r="72" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="S72" s="14"/>
-      <c r="T72" s="14"/>
-      <c r="U72" s="14"/>
-    </row>
-    <row r="74" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>50</v>
-      </c>
+      <c r="S64" s="16"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+    </row>
+    <row r="65" spans="19:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S65" s="16"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+    </row>
+    <row r="66" spans="19:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S66" s="16"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+    </row>
+    <row r="67" spans="19:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S67" s="18"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+    </row>
+    <row r="68" spans="19:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S68" s="16"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+    </row>
+    <row r="69" spans="19:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S69" s="16"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+    </row>
+    <row r="70" spans="19:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S70" s="16"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+    </row>
+    <row r="71" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S71" s="16"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+    </row>
+    <row r="72" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1484,6 +1657,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1498,42 +1672,42 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
-        <v>67</v>
+      <c r="C4" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="11"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>68</v>
+      <c r="C6" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>69</v>
+      <c r="C7" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="12" t="s">
-        <v>70</v>
+      <c r="D8" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="12" t="s">
-        <v>71</v>
+      <c r="D9" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="12" t="s">
-        <v>72</v>
+      <c r="D10" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1552,36 +1726,36 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="5:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="E3" s="10" t="s">
-        <v>73</v>
+      <c r="E3" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="11" t="s">
-        <v>74</v>
+      <c r="E5" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="11" t="s">
-        <v>75</v>
+      <c r="E6" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="12" t="s">
-        <v>76</v>
+      <c r="E7" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="12" t="s">
-        <v>77</v>
+      <c r="E8" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="12" t="s">
-        <v>78</v>
+      <c r="E9" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1600,40 +1774,40 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="D2" s="10" t="s">
-        <v>88</v>
+      <c r="D2" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="12" t="s">
-        <v>82</v>
+      <c r="D8" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1652,36 +1826,36 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="5:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="E2" s="10" t="s">
-        <v>83</v>
+      <c r="E2" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="11" t="s">
-        <v>84</v>
+      <c r="E4" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="13" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1700,36 +1874,36 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="D2" s="10" t="s">
-        <v>89</v>
+      <c r="D2" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
-        <v>90</v>
+      <c r="D4" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="11" t="s">
-        <v>75</v>
+      <c r="D5" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="12" t="s">
-        <v>91</v>
+      <c r="D6" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="12" t="s">
-        <v>92</v>
+      <c r="D7" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="12" t="s">
-        <v>93</v>
+      <c r="D8" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1748,39 +1922,311 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="5:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="E3" s="10" t="s">
-        <v>94</v>
+      <c r="E3" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="11" t="s">
-        <v>95</v>
+      <c r="E5" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="11" t="s">
-        <v>75</v>
+      <c r="E6" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="12" t="s">
-        <v>96</v>
+      <c r="E7" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="12" t="s">
-        <v>97</v>
+      <c r="E8" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="12" t="s">
-        <v>98</v>
+      <c r="E9" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:U53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="F28" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="F29" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="F30" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="F31" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="F32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+      <c r="G33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+      <c r="T37">
+        <v>90</v>
+      </c>
+      <c r="U37" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+      <c r="T38">
+        <f>T37*U38/U37</f>
+        <v>117</v>
+      </c>
+      <c r="U38" s="21">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+      <c r="F41" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+      <c r="G42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+      <c r="G43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+      <c r="G44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+      <c r="F45" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+      <c r="F46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+      <c r="G47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+      <c r="H49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+      <c r="G50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>